--- a/GRE_Notifier/GREWords.xlsx
+++ b/GRE_Notifier/GREWords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rudviq\PycharmProjects\Notify\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rudviq\PycharmProjects\GRE_Notifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0729D6D-C362-4D77-9F86-57FD06B8EEC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22129F1B-81F2-43F2-8D39-2A11FFDD198B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common Words" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Magoosh Basic words" sheetId="3" r:id="rId4"/>
     <sheet name="Magoosh Advanced" sheetId="4" r:id="rId5"/>
     <sheet name="Barrons 1100" sheetId="5" r:id="rId6"/>
+    <sheet name="Advance Words" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="1508">
   <si>
     <t>Alphabets</t>
   </si>
@@ -5083,8 +5084,8 @@
   </sheetPr>
   <dimension ref="A1:G307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9145,7 +9146,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9871,7 +9872,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -11112,7 +11113,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -12168,7 +12169,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -12336,7 +12337,7 @@
   </sheetPr>
   <dimension ref="A1:G335"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" workbookViewId="0">
+    <sheetView topLeftCell="A256" workbookViewId="0">
       <selection activeCell="C285" sqref="C285:D335"/>
     </sheetView>
   </sheetViews>
@@ -21567,4 +21568,320 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AFC64F-7070-42C1-801E-CC63D803D3D5}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="47.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32">
+        <v>1</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32">
+        <v>2</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32">
+        <v>3</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32">
+        <v>4</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32">
+        <v>5</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32">
+        <v>6</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32">
+        <v>7</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32">
+        <v>8</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
+        <v>9</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="132.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32">
+        <v>10</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32">
+        <v>11</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32">
+        <v>12</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>13</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32">
+        <v>14</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32">
+        <v>15</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32">
+        <v>16</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32">
+        <v>17</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32">
+        <v>18</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32">
+        <v>19</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32">
+        <v>20</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32">
+        <v>21</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32">
+        <v>22</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32">
+        <v>23</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32">
+        <v>24</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32">
+        <v>25</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32">
+        <v>26</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>516</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32">
+        <v>27</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>